--- a/data/Household_Survey_Results.xlsx
+++ b/data/Household_Survey_Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khalifa Omade\Documents\PS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khalifa Omade\Documents\Biogas_hybrid_microgrid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E931DF42-D7B1-4E7A-8952-2A930E2C5B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D687EC-C450-4393-86C2-2813AE4967C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{300B3C3D-6531-4B23-B556-79A68AF2A3C3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>Household Size</t>
   </si>
@@ -33,16 +33,85 @@
     <t>House ID</t>
   </si>
   <si>
-    <t>Meals per day</t>
-  </si>
-  <si>
     <t>Primary Fuel</t>
   </si>
   <si>
-    <t>Secondary Fuel</t>
-  </si>
-  <si>
-    <t>Units used</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>LPG</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>12.5kg/35days</t>
+  </si>
+  <si>
+    <t>12.5kg/45days</t>
+  </si>
+  <si>
+    <t>2k/2days</t>
+  </si>
+  <si>
+    <t>cooks sparingly</t>
+  </si>
+  <si>
+    <t>12.5kg/25days</t>
+  </si>
+  <si>
+    <t>6kg/50days</t>
+  </si>
+  <si>
+    <t>12.5kg/30days</t>
+  </si>
+  <si>
+    <t>4k/5days=3.2kg/d</t>
+  </si>
+  <si>
+    <t>50kg/12K/7days=7.14kg/d</t>
+  </si>
+  <si>
+    <t>12.5kg/42days</t>
+  </si>
+  <si>
+    <t>15kg/40days</t>
+  </si>
+  <si>
+    <t>15kg/35days</t>
+  </si>
+  <si>
+    <t>20kg/65days</t>
+  </si>
+  <si>
+    <t>4kg/day</t>
+  </si>
+  <si>
+    <t>Frequency (Fuel/time)</t>
+  </si>
+  <si>
+    <t>12.5kg/40days</t>
+  </si>
+  <si>
+    <t>12.5kg/33days</t>
+  </si>
+  <si>
+    <t>3kg/50days</t>
+  </si>
+  <si>
+    <t>Solid waste/day (Kg)</t>
+  </si>
+  <si>
+    <t>amala business</t>
+  </si>
+  <si>
+    <t>security and nannies</t>
+  </si>
+  <si>
+    <t>cooks once a day</t>
+  </si>
+  <si>
+    <t>family size changes</t>
   </si>
 </sst>
 </file>
@@ -394,19 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404B6516-8DE8-46BF-962A-DED478AE986C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -420,28 +489,368 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1.2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1.8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>3.7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
